--- a/PROGRAM/R generation of KTP/all_topics_short_virtual_for_distant.xlsx
+++ b/PROGRAM/R generation of KTP/all_topics_short_virtual_for_distant.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="464">
   <si>
     <t>Year</t>
   </si>
@@ -1114,40 +1114,85 @@
     <t>Virtual</t>
   </si>
   <si>
-    <t>https://bioseminars.wordpress.com/2020/03/09/%d0%b7%d0%b0%d0%bf%d0%b8%d1%81%d1%8c-%d0%bb%d0%b5%d0%ba%d1%86%d0%b8%d0%b8-%d0%ba%d0%be%d0%bd%d1%81%d1%82%d0%b0%d0%bd%d1%82%d0%b8%d0%bd%d0%b0-%d1%85%d0%b0%d0%bb%d1%82%d1%83%d1%80%d0%b8%d0%bd%d0%b0/</t>
+    <t>https://www.youtube.com/watch?v=Zd0sWh_-qI4&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>Виртуальная экскурсия в Зоологический институт: анализ онлайн коллекции препаратов</t>
   </si>
   <si>
+    <t>https://www.zin.ru/museum/history.html</t>
+  </si>
+  <si>
+    <t>Онлайн встреча: Разбор домашнего задания</t>
+  </si>
+  <si>
+    <t>https://vk.com/videos-54669810?z=video-54669810_166896609%2Fpl_-54669810_-2</t>
+  </si>
+  <si>
+    <t>https://www.zin.ru/museum/expositions/invertebrata.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виртуальное Практическое занятие на кафедре Зоологии беспозвоночных СПбГУ </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v-cHbPb2pjE&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://www.zin.ru/museum/expositions/insects.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_pKsMt1YsME&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://www.zin.ru/museum/expositions/fish.html</t>
+  </si>
+  <si>
+    <t>https://vk.com/videos-54669810?z=video-54669810_456239044%2Fpl_-54669810_-2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nIOmM798R1A&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://vk.com/videos-54669810?z=video-54669810_166896618%2Fpl_-54669810_-2</t>
+  </si>
+  <si>
+    <t>https://bioseminars.wordpress.com/2019/12/02/video-beringia/</t>
+  </si>
+  <si>
+    <t>https://vk.com/videos-54669810?z=video-54669810_166896590%2Fpl_-54669810_-2</t>
+  </si>
+  <si>
+    <t>https://www.zin.ru/museum/expositions/mammals.html</t>
+  </si>
+  <si>
+    <t>https://vk.com/video-54669810_166896606</t>
+  </si>
+  <si>
+    <t>https://www.zin.ru/museum/expositions/sea-associations.html</t>
+  </si>
+  <si>
+    <t>Финальная встреча. Обсуждение планов сбора материала.</t>
+  </si>
+  <si>
+    <t>Тест-викторина по пройденным темам</t>
+  </si>
+  <si>
+    <t>https://bioseminars.wordpress.com/2011/12/31/ostrovski-coral-video/</t>
+  </si>
+  <si>
+    <t>https://www.zin.ru/museum/expositions/mammoth_fauna.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G-Kd6SO8ci8&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>https://www.zin.ru/projects/neuromorphology/collections.html</t>
   </si>
   <si>
-    <t>Онлайн встреча: Разбор домашнего задания</t>
-  </si>
-  <si>
-    <t>https://vk.com/videos-54669810?z=video-54669810_166896609%2Fpl_-54669810_-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виртуальное Практическое занятие на кафедре Зоологии беспозвоночных СПбГУ </t>
-  </si>
-  <si>
-    <t>https://bioseminars.wordpress.com/2020/02/01/%d0%b7%d0%b0%d0%bf%d0%b8%d1%81%d1%8c-%d0%bb%d0%b5%d0%ba%d1%86%d0%b8%d0%b8-%d0%bc%d0%b0%d1%80%d0%b8%d0%bd%d1%8b-%d0%bf%d0%b0%d0%bd%d0%be%d0%b2%d0%be%d0%b9/</t>
-  </si>
-  <si>
-    <t>https://bioseminars.wordpress.com/2019/12/02/video-beringia/</t>
-  </si>
-  <si>
-    <t>https://vk.com/video-54669810_166896606</t>
-  </si>
-  <si>
-    <t>Финальная встреча. Обсуждение планов сбора материала.</t>
-  </si>
-  <si>
-    <t>Тест-викторина по пройденным темам</t>
-  </si>
-  <si>
-    <t>https://bioseminars.wordpress.com/2011/12/31/ostrovski-coral-video/</t>
+    <t>https://vk.com/videos-54669810?z=video-54669810_166896606%2Fpl_-54669810_-2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hInxTkK7800&amp;feature=youtu.be</t>
   </si>
   <si>
     <t xml:space="preserve">Стратегия постановки вопроса работы. </t>
@@ -1371,10 +1416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1385,8 +1430,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,15 +1475,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,45 +1516,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1485,9 +1531,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1499,33 +1553,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1535,72 +1580,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1616,19 +1595,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,55 +1709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,6 +1774,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1781,7 +1837,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,8 +1845,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1813,19 +1869,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,153 +1879,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2304,11 +2352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F385" sqref="F385:F440"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2339,7 +2387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2362,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2385,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2408,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2431,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2454,7 +2502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2477,7 +2525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2500,7 +2548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2523,7 +2571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2546,7 +2594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2569,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2592,7 +2640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2615,7 +2663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2638,7 +2686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2661,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2684,7 +2732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2707,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2730,7 +2778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2753,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2799,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2822,7 +2870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2845,7 +2893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2868,7 +2916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2891,7 +2939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2914,7 +2962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2937,7 +2985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2960,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2983,7 +3031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3006,7 +3054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3029,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3052,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3075,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3098,7 +3146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3121,7 +3169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3144,7 +3192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3167,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3187,7 +3235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3207,7 +3255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3227,7 +3275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3247,7 +3295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3267,7 +3315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3287,7 +3335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3307,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3327,7 +3375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3347,7 +3395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3370,7 +3418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:7">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3393,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:7">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3416,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3436,7 +3484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3456,7 +3504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:6">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3476,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:6">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3496,7 +3544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3516,7 +3564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3536,7 +3584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:6">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3556,7 +3604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3576,7 +3624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:6">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3596,7 +3644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:7">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3619,7 +3667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:7">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3642,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:7">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3665,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:7">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3688,7 +3736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:7">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3711,7 +3759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:7">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3734,7 +3782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:7">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3757,7 +3805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:7">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3780,7 +3828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:7">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3803,7 +3851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:7">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3826,7 +3874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3849,7 +3897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:7">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3872,7 +3920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="71" ht="13" customHeight="1" spans="1:7">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3895,7 +3943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="13" hidden="1" customHeight="1" spans="1:7">
+    <row r="72" ht="13" customHeight="1" spans="1:7">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3918,7 +3966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:7">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3941,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:7">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3964,7 +4012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:7">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3987,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:7">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>2</v>
       </c>
@@ -4010,7 +4058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>2</v>
       </c>
@@ -4033,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:7">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>2</v>
       </c>
@@ -4056,7 +4104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>2</v>
       </c>
@@ -4079,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:7">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>2</v>
       </c>
@@ -4102,7 +4150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:7">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4125,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:7">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4148,7 +4196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4171,7 +4219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:7">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>2</v>
       </c>
@@ -4194,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:7">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>2</v>
       </c>
@@ -4217,7 +4265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:7">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>2</v>
       </c>
@@ -4240,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:7">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4263,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:7">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4286,7 +4334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:7">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>2</v>
       </c>
@@ -4309,7 +4357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:7">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>2</v>
       </c>
@@ -4332,7 +4380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:7">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4355,7 +4403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:7">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>2</v>
       </c>
@@ -4378,7 +4426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:7">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4401,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:7">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>2</v>
       </c>
@@ -4424,7 +4472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:7">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>2</v>
       </c>
@@ -4447,7 +4495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:7">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>2</v>
       </c>
@@ -4470,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:7">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>2</v>
       </c>
@@ -4493,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:7">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>2</v>
       </c>
@@ -4516,7 +4564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:7">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4539,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:7">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4562,7 +4610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:7">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2</v>
       </c>
@@ -4585,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:7">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>2</v>
       </c>
@@ -4608,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:7">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>2</v>
       </c>
@@ -4631,7 +4679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:7">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>2</v>
       </c>
@@ -4654,7 +4702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:7">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>2</v>
       </c>
@@ -4677,7 +4725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:7">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4700,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:7">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4723,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:7">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>2</v>
       </c>
@@ -4746,7 +4794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:7">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4769,7 +4817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>2</v>
       </c>
@@ -4792,7 +4840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:7">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>2</v>
       </c>
@@ -4815,7 +4863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:7">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>2</v>
       </c>
@@ -4838,7 +4886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:7">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>2</v>
       </c>
@@ -4861,7 +4909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:7">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>2</v>
       </c>
@@ -4884,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:7">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>2</v>
       </c>
@@ -4907,7 +4955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:7">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>2</v>
       </c>
@@ -4930,7 +4978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:7">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>2</v>
       </c>
@@ -4953,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:7">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>2</v>
       </c>
@@ -4976,7 +5024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:7">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>2</v>
       </c>
@@ -4999,7 +5047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:7">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>2</v>
       </c>
@@ -5022,7 +5070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:7">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>2</v>
       </c>
@@ -5045,7 +5093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:7">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>2</v>
       </c>
@@ -5068,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:7">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>2</v>
       </c>
@@ -5091,7 +5139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:7">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>2</v>
       </c>
@@ -5114,7 +5162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:7">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>2</v>
       </c>
@@ -5137,7 +5185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:7">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>2</v>
       </c>
@@ -5160,7 +5208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:7">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>2</v>
       </c>
@@ -5183,7 +5231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:7">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>2</v>
       </c>
@@ -5206,7 +5254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>2</v>
       </c>
@@ -5229,7 +5277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>2</v>
       </c>
@@ -5249,7 +5297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:6">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>2</v>
       </c>
@@ -5269,7 +5317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:6">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>2</v>
       </c>
@@ -5289,7 +5337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:6">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>2</v>
       </c>
@@ -5309,7 +5357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:6">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>2</v>
       </c>
@@ -5329,7 +5377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:6">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>2</v>
       </c>
@@ -5349,7 +5397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:6">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>2</v>
       </c>
@@ -5369,7 +5417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:6">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>2</v>
       </c>
@@ -5389,7 +5437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>2</v>
       </c>
@@ -5409,7 +5457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:7">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>3</v>
       </c>
@@ -5432,7 +5480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:7">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>3</v>
       </c>
@@ -5455,7 +5503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:7">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>3</v>
       </c>
@@ -5478,7 +5526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:7">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>3</v>
       </c>
@@ -5501,7 +5549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:7">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>3</v>
       </c>
@@ -5524,7 +5572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:7">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5547,7 +5595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:7">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>3</v>
       </c>
@@ -5570,7 +5618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:7">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>3</v>
       </c>
@@ -5593,7 +5641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:7">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>3</v>
       </c>
@@ -5616,7 +5664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:7">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>3</v>
       </c>
@@ -5639,7 +5687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:7">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>3</v>
       </c>
@@ -5662,7 +5710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:7">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>3</v>
       </c>
@@ -5685,7 +5733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>3</v>
       </c>
@@ -5708,7 +5756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:7">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>3</v>
       </c>
@@ -5731,7 +5779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:7">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>3</v>
       </c>
@@ -5754,7 +5802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:7">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>3</v>
       </c>
@@ -5777,7 +5825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:7">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>3</v>
       </c>
@@ -5800,7 +5848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:7">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>3</v>
       </c>
@@ -5823,7 +5871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:7">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5846,7 +5894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:7">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>3</v>
       </c>
@@ -5869,7 +5917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:7">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>3</v>
       </c>
@@ -5892,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:7">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>3</v>
       </c>
@@ -5915,7 +5963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:7">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>3</v>
       </c>
@@ -5938,7 +5986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:7">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>3</v>
       </c>
@@ -5961,7 +6009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:7">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>3</v>
       </c>
@@ -5984,7 +6032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:7">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>3</v>
       </c>
@@ -6007,7 +6055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:7">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>3</v>
       </c>
@@ -6030,7 +6078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:7">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>3</v>
       </c>
@@ -6053,7 +6101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:7">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>3</v>
       </c>
@@ -6076,7 +6124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:7">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>3</v>
       </c>
@@ -6099,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:7">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>3</v>
       </c>
@@ -6122,7 +6170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:7">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>3</v>
       </c>
@@ -6145,7 +6193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:7">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>3</v>
       </c>
@@ -6168,7 +6216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:7">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>3</v>
       </c>
@@ -6191,7 +6239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:7">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>3</v>
       </c>
@@ -6214,7 +6262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:7">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>3</v>
       </c>
@@ -6237,7 +6285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:7">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>3</v>
       </c>
@@ -6260,7 +6308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:7">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>3</v>
       </c>
@@ -6283,7 +6331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:7">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>3</v>
       </c>
@@ -6306,7 +6354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:7">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>3</v>
       </c>
@@ -6329,7 +6377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:7">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>3</v>
       </c>
@@ -6352,7 +6400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:7">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>3</v>
       </c>
@@ -6375,7 +6423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:7">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>3</v>
       </c>
@@ -6398,7 +6446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:7">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>3</v>
       </c>
@@ -6421,7 +6469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:7">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>3</v>
       </c>
@@ -6444,7 +6492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:7">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>3</v>
       </c>
@@ -6467,7 +6515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:7">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>3</v>
       </c>
@@ -6490,7 +6538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:7">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>3</v>
       </c>
@@ -6513,7 +6561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:7">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>3</v>
       </c>
@@ -6536,7 +6584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:7">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>3</v>
       </c>
@@ -6559,7 +6607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:7">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>3</v>
       </c>
@@ -6582,7 +6630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:7">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>3</v>
       </c>
@@ -6605,7 +6653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:7">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>3</v>
       </c>
@@ -6628,7 +6676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:7">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>3</v>
       </c>
@@ -6651,7 +6699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:7">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>3</v>
       </c>
@@ -6674,7 +6722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:7">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>3</v>
       </c>
@@ -6697,7 +6745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:7">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>3</v>
       </c>
@@ -6720,7 +6768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:7">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>3</v>
       </c>
@@ -6743,7 +6791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:7">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>3</v>
       </c>
@@ -6766,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:7">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>3</v>
       </c>
@@ -6789,7 +6837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:7">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>3</v>
       </c>
@@ -6812,7 +6860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:7">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>3</v>
       </c>
@@ -6835,7 +6883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:7">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>3</v>
       </c>
@@ -6858,7 +6906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:7">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>3</v>
       </c>
@@ -6881,7 +6929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:7">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6904,7 +6952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:7">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>3</v>
       </c>
@@ -6927,7 +6975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:7">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>3</v>
       </c>
@@ -6950,7 +6998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:7">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>3</v>
       </c>
@@ -6973,7 +7021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:7">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>3</v>
       </c>
@@ -6996,7 +7044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:7">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>3</v>
       </c>
@@ -7019,7 +7067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:7">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>3</v>
       </c>
@@ -7042,7 +7090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:7">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>3</v>
       </c>
@@ -7065,7 +7113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:7">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>3</v>
       </c>
@@ -7088,7 +7136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:7">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>3</v>
       </c>
@@ -7111,7 +7159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:7">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>3</v>
       </c>
@@ -7134,7 +7182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:6">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>3</v>
       </c>
@@ -7154,7 +7202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:6">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>3</v>
       </c>
@@ -7174,7 +7222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:6">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>3</v>
       </c>
@@ -7194,7 +7242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:6">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>3</v>
       </c>
@@ -7214,7 +7262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:6">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>3</v>
       </c>
@@ -7234,7 +7282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:6">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>3</v>
       </c>
@@ -7254,7 +7302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:6">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>3</v>
       </c>
@@ -7274,7 +7322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:6">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>3</v>
       </c>
@@ -7294,7 +7342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:6">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>3</v>
       </c>
@@ -7314,7 +7362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:6">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7334,7 +7382,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:6">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>2</v>
       </c>
@@ -7354,7 +7402,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:6">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>2</v>
       </c>
@@ -7374,7 +7422,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:6">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>2</v>
       </c>
@@ -7394,7 +7442,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:6">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>2</v>
       </c>
@@ -7414,7 +7462,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:6">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>2</v>
       </c>
@@ -7434,7 +7482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:6">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>2</v>
       </c>
@@ -7454,7 +7502,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:6">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>2</v>
       </c>
@@ -7474,7 +7522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:6">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>2</v>
       </c>
@@ -7494,7 +7542,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:6">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>2</v>
       </c>
@@ -7514,7 +7562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:6">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>2</v>
       </c>
@@ -7534,7 +7582,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:6">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>2</v>
       </c>
@@ -7554,7 +7602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:6">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>2</v>
       </c>
@@ -7574,7 +7622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:6">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>2</v>
       </c>
@@ -7594,7 +7642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:6">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>2</v>
       </c>
@@ -7614,7 +7662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:6">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>2</v>
       </c>
@@ -7634,7 +7682,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:6">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>2</v>
       </c>
@@ -7654,7 +7702,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:6">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>2</v>
       </c>
@@ -7674,7 +7722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:6">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>2</v>
       </c>
@@ -7694,7 +7742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:6">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>2</v>
       </c>
@@ -7714,7 +7762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:6">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>2</v>
       </c>
@@ -7734,7 +7782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:6">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>2</v>
       </c>
@@ -7754,7 +7802,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:6">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>2</v>
       </c>
@@ -7774,7 +7822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:6">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>2</v>
       </c>
@@ -7794,7 +7842,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:6">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>2</v>
       </c>
@@ -7814,7 +7862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:6">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>2</v>
       </c>
@@ -7834,7 +7882,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:6">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>2</v>
       </c>
@@ -7854,7 +7902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:6">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>2</v>
       </c>
@@ -7874,7 +7922,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:6">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>2</v>
       </c>
@@ -7894,7 +7942,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:6">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>2</v>
       </c>
@@ -7914,7 +7962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:6">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>2</v>
       </c>
@@ -7934,7 +7982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:6">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>2</v>
       </c>
@@ -7954,7 +8002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:6">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>2</v>
       </c>
@@ -7974,7 +8022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:6">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>2</v>
       </c>
@@ -7994,7 +8042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:6">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>2</v>
       </c>
@@ -8014,7 +8062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:6">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>2</v>
       </c>
@@ -8034,7 +8082,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:6">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>2</v>
       </c>
@@ -8054,7 +8102,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:6">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>2</v>
       </c>
@@ -8074,7 +8122,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:6">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>2</v>
       </c>
@@ -8094,7 +8142,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:6">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>2</v>
       </c>
@@ -8114,7 +8162,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:6">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>2</v>
       </c>
@@ -8134,7 +8182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:6">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>2</v>
       </c>
@@ -8154,7 +8202,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:6">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>2</v>
       </c>
@@ -8174,7 +8222,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:6">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>2</v>
       </c>
@@ -8194,7 +8242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:6">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>2</v>
       </c>
@@ -8214,7 +8262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:6">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>2</v>
       </c>
@@ -8234,7 +8282,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:6">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>2</v>
       </c>
@@ -8254,7 +8302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:6">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>2</v>
       </c>
@@ -8274,7 +8322,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:6">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>2</v>
       </c>
@@ -8294,7 +8342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:6">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>2</v>
       </c>
@@ -8314,7 +8362,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:6">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>2</v>
       </c>
@@ -8334,7 +8382,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:6">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>2</v>
       </c>
@@ -8354,7 +8402,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:6">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>2</v>
       </c>
@@ -8374,7 +8422,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:6">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>2</v>
       </c>
@@ -8394,7 +8442,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:6">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>2</v>
       </c>
@@ -8414,7 +8462,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:6">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>2</v>
       </c>
@@ -8434,7 +8482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:6">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>2</v>
       </c>
@@ -8454,7 +8502,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:6">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>2</v>
       </c>
@@ -8474,7 +8522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:6">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>2</v>
       </c>
@@ -8494,7 +8542,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:6">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>2</v>
       </c>
@@ -8514,7 +8562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:6">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>2</v>
       </c>
@@ -8534,7 +8582,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:6">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>2</v>
       </c>
@@ -8554,7 +8602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:6">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>2</v>
       </c>
@@ -8574,7 +8622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:6">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>2</v>
       </c>
@@ -8594,7 +8642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:6">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>2</v>
       </c>
@@ -8614,7 +8662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:6">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>2</v>
       </c>
@@ -8634,7 +8682,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:6">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>2</v>
       </c>
@@ -8654,7 +8702,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:6">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>2</v>
       </c>
@@ -8674,7 +8722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:6">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>2</v>
       </c>
@@ -8694,7 +8742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:6">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>2</v>
       </c>
@@ -8714,7 +8762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:6">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>2</v>
       </c>
@@ -8734,7 +8782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:6">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>2</v>
       </c>
@@ -8754,7 +8802,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:6">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>1</v>
       </c>
@@ -8774,7 +8822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:6">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>1</v>
       </c>
@@ -8794,7 +8842,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:6">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8814,7 +8862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:6">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>1</v>
       </c>
@@ -8834,7 +8882,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:6">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>1</v>
       </c>
@@ -8854,7 +8902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:6">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>1</v>
       </c>
@@ -8874,7 +8922,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:6">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>1</v>
       </c>
@@ -8894,7 +8942,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:6">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8914,7 +8962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:6">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8934,7 +8982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:6">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>1</v>
       </c>
@@ -8954,7 +9002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:6">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8974,7 +9022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:6">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>1</v>
       </c>
@@ -8994,7 +9042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:6">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>1</v>
       </c>
@@ -9014,7 +9062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:6">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>1</v>
       </c>
@@ -9034,7 +9082,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:6">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>1</v>
       </c>
@@ -9054,7 +9102,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:6">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>1</v>
       </c>
@@ -9074,7 +9122,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:6">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>1</v>
       </c>
@@ -9094,7 +9142,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:6">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>1</v>
       </c>
@@ -9114,7 +9162,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:6">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>1</v>
       </c>
@@ -9134,7 +9182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:6">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>1</v>
       </c>
@@ -9154,7 +9202,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:6">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>1</v>
       </c>
@@ -9174,7 +9222,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:6">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>1</v>
       </c>
@@ -9194,7 +9242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:6">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>1</v>
       </c>
@@ -9214,7 +9262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:6">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>1</v>
       </c>
@@ -9234,7 +9282,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:6">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>1</v>
       </c>
@@ -9254,7 +9302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:6">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>1</v>
       </c>
@@ -9274,7 +9322,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:6">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>1</v>
       </c>
@@ -9294,7 +9342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:6">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>1</v>
       </c>
@@ -9314,7 +9362,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:6">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>1</v>
       </c>
@@ -9334,7 +9382,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:6">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>1</v>
       </c>
@@ -9354,7 +9402,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:6">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>1</v>
       </c>
@@ -9374,7 +9422,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:6">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>1</v>
       </c>
@@ -9394,7 +9442,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:6">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>1</v>
       </c>
@@ -9414,7 +9462,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:6">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>1</v>
       </c>
@@ -9434,7 +9482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:6">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>1</v>
       </c>
@@ -9454,7 +9502,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:6">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>1</v>
       </c>
@@ -9474,7 +9522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:6">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>1</v>
       </c>
@@ -9494,7 +9542,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:6">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>1</v>
       </c>
@@ -9514,7 +9562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:6">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>1</v>
       </c>
@@ -9534,7 +9582,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:6">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>1</v>
       </c>
@@ -9554,7 +9602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:6">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>1</v>
       </c>
@@ -9574,7 +9622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:6">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>1</v>
       </c>
@@ -9594,7 +9642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:6">
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>1</v>
       </c>
@@ -9614,7 +9662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:6">
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9634,7 +9682,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:6">
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>1</v>
       </c>
@@ -9654,7 +9702,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:6">
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>1</v>
       </c>
@@ -9674,7 +9722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:6">
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9694,7 +9742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:6">
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>1</v>
       </c>
@@ -9714,7 +9762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:6">
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>1</v>
       </c>
@@ -9734,7 +9782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:6">
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>1</v>
       </c>
@@ -9754,7 +9802,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:6">
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>1</v>
       </c>
@@ -9774,7 +9822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:6">
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>1</v>
       </c>
@@ -9794,7 +9842,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:6">
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>1</v>
       </c>
@@ -9814,7 +9862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:6">
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>1</v>
       </c>
@@ -9834,7 +9882,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:6">
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>1</v>
       </c>
@@ -9854,7 +9902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:6">
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>1</v>
       </c>
@@ -9874,7 +9922,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:6">
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>1</v>
       </c>
@@ -9894,7 +9942,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:6">
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>1</v>
       </c>
@@ -9914,7 +9962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:6">
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>1</v>
       </c>
@@ -9934,7 +9982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:6">
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>1</v>
       </c>
@@ -9954,7 +10002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:6">
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>1</v>
       </c>
@@ -9974,7 +10022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:6">
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>1</v>
       </c>
@@ -9994,7 +10042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:6">
+    <row r="357" spans="1:6">
       <c r="A357">
         <v>1</v>
       </c>
@@ -10014,7 +10062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:6">
+    <row r="358" spans="1:6">
       <c r="A358">
         <v>1</v>
       </c>
@@ -10034,7 +10082,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:6">
+    <row r="359" spans="1:6">
       <c r="A359">
         <v>1</v>
       </c>
@@ -10054,7 +10102,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:6">
+    <row r="360" spans="1:6">
       <c r="A360">
         <v>1</v>
       </c>
@@ -10074,7 +10122,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:6">
+    <row r="361" spans="1:6">
       <c r="A361">
         <v>1</v>
       </c>
@@ -10094,7 +10142,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:6">
+    <row r="362" spans="1:6">
       <c r="A362">
         <v>1</v>
       </c>
@@ -10114,7 +10162,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:6">
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>1</v>
       </c>
@@ -10134,7 +10182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:6">
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>1</v>
       </c>
@@ -10154,7 +10202,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:6">
+    <row r="365" spans="1:6">
       <c r="A365">
         <v>1</v>
       </c>
@@ -10174,7 +10222,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:6">
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>1</v>
       </c>
@@ -10194,7 +10242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:6">
+    <row r="367" spans="1:7">
       <c r="A367">
         <v>1</v>
       </c>
@@ -10211,10 +10259,13 @@
         <v>364</v>
       </c>
       <c r="F367" t="s">
+        <v>9</v>
+      </c>
+      <c r="G367" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:7">
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>1</v>
       </c>
@@ -10237,7 +10288,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:7">
+    <row r="369" spans="1:7">
       <c r="A369">
         <v>1</v>
       </c>
@@ -10260,7 +10311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:7">
+    <row r="370" spans="1:7">
       <c r="A370">
         <v>1</v>
       </c>
@@ -10283,7 +10334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:6">
+    <row r="371" spans="1:7">
       <c r="A371">
         <v>1</v>
       </c>
@@ -10300,10 +10351,13 @@
         <v>364</v>
       </c>
       <c r="F371" t="s">
+        <v>9</v>
+      </c>
+      <c r="G371" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:7">
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>1</v>
       </c>
@@ -10323,10 +10377,10 @@
         <v>9</v>
       </c>
       <c r="G372" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="373" hidden="1" spans="1:7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373">
         <v>1</v>
       </c>
@@ -10349,7 +10403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:7">
+    <row r="374" spans="1:7">
       <c r="A374">
         <v>1</v>
       </c>
@@ -10377,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -10392,10 +10446,10 @@
         <v>9</v>
       </c>
       <c r="G375" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="376" hidden="1" spans="1:7">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376">
         <v>1</v>
       </c>
@@ -10415,10 +10469,10 @@
         <v>9</v>
       </c>
       <c r="G376" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="377" hidden="1" spans="1:7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377">
         <v>1</v>
       </c>
@@ -10441,7 +10495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:7">
+    <row r="378" spans="1:7">
       <c r="A378">
         <v>1</v>
       </c>
@@ -10464,7 +10518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:7">
+    <row r="379" spans="1:7">
       <c r="A379">
         <v>1</v>
       </c>
@@ -10487,7 +10541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:6">
+    <row r="380" spans="1:7">
       <c r="A380">
         <v>1</v>
       </c>
@@ -10504,10 +10558,13 @@
         <v>364</v>
       </c>
       <c r="F380" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="381" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G380" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381">
         <v>1</v>
       </c>
@@ -10530,7 +10587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:7">
+    <row r="382" spans="1:7">
       <c r="A382">
         <v>1</v>
       </c>
@@ -10550,10 +10607,10 @@
         <v>9</v>
       </c>
       <c r="G382" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="383" hidden="1" spans="1:7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383">
         <v>1</v>
       </c>
@@ -10576,7 +10633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:7">
+    <row r="384" spans="1:7">
       <c r="A384">
         <v>1</v>
       </c>
@@ -10599,12 +10656,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:7">
       <c r="A385">
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -10616,10 +10673,13 @@
         <v>364</v>
       </c>
       <c r="F385" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="386" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386">
         <v>1</v>
       </c>
@@ -10639,10 +10699,10 @@
         <v>9</v>
       </c>
       <c r="G386" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="387" hidden="1" spans="1:7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387">
         <v>1</v>
       </c>
@@ -10662,10 +10722,10 @@
         <v>9</v>
       </c>
       <c r="G387" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="388" hidden="1" spans="1:7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388">
         <v>1</v>
       </c>
@@ -10688,7 +10748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:6">
+    <row r="389" spans="1:7">
       <c r="A389">
         <v>1</v>
       </c>
@@ -10705,10 +10765,13 @@
         <v>364</v>
       </c>
       <c r="F389" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="390" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G389" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10728,10 +10791,10 @@
         <v>9</v>
       </c>
       <c r="G390" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="391" hidden="1" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391">
         <v>1</v>
       </c>
@@ -10751,10 +10814,10 @@
         <v>9</v>
       </c>
       <c r="G391" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="392" hidden="1" spans="1:7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392">
         <v>1</v>
       </c>
@@ -10777,12 +10840,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:7">
       <c r="A393">
         <v>1</v>
       </c>
       <c r="B393" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -10794,10 +10857,13 @@
         <v>364</v>
       </c>
       <c r="F393" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="394" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G393" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394">
         <v>1</v>
       </c>
@@ -10817,10 +10883,10 @@
         <v>9</v>
       </c>
       <c r="G394" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="395" hidden="1" spans="1:7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395">
         <v>1</v>
       </c>
@@ -10843,7 +10909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:7">
+    <row r="396" spans="1:7">
       <c r="A396">
         <v>1</v>
       </c>
@@ -10866,7 +10932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:6">
+    <row r="397" spans="1:7">
       <c r="A397">
         <v>1</v>
       </c>
@@ -10883,10 +10949,13 @@
         <v>364</v>
       </c>
       <c r="F397" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="398" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G397" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398">
         <v>1</v>
       </c>
@@ -10906,10 +10975,10 @@
         <v>9</v>
       </c>
       <c r="G398" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="399" hidden="1" spans="1:7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399">
         <v>1</v>
       </c>
@@ -10932,7 +11001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:7">
+    <row r="400" spans="1:7">
       <c r="A400">
         <v>1</v>
       </c>
@@ -10955,12 +11024,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:7">
       <c r="A401">
         <v>1</v>
       </c>
       <c r="B401" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -10972,10 +11041,13 @@
         <v>364</v>
       </c>
       <c r="F401" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="402" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G401" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402">
         <v>1</v>
       </c>
@@ -10998,12 +11070,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:7">
+    <row r="403" spans="1:7">
       <c r="A403">
         <v>2</v>
       </c>
       <c r="B403" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -11021,12 +11093,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:7">
+    <row r="404" spans="1:7">
       <c r="A404">
         <v>2</v>
       </c>
       <c r="B404" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -11044,12 +11116,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:7">
+    <row r="405" spans="1:7">
       <c r="A405">
         <v>2</v>
       </c>
       <c r="B405" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -11067,7 +11139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:6">
+    <row r="406" spans="1:7">
       <c r="A406">
         <v>2</v>
       </c>
@@ -11084,10 +11156,13 @@
         <v>364</v>
       </c>
       <c r="F406" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="407" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G406" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407">
         <v>2</v>
       </c>
@@ -11107,10 +11182,10 @@
         <v>9</v>
       </c>
       <c r="G407" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="408" hidden="1" spans="1:7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408">
         <v>2</v>
       </c>
@@ -11133,7 +11208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:7">
+    <row r="409" spans="1:7">
       <c r="A409">
         <v>2</v>
       </c>
@@ -11156,7 +11231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:6">
+    <row r="410" spans="1:7">
       <c r="A410">
         <v>2</v>
       </c>
@@ -11173,10 +11248,13 @@
         <v>364</v>
       </c>
       <c r="F410" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="411" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G410" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411">
         <v>2</v>
       </c>
@@ -11196,10 +11274,10 @@
         <v>9</v>
       </c>
       <c r="G411" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="412" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412">
         <v>2</v>
       </c>
@@ -11222,7 +11300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:7">
+    <row r="413" spans="1:7">
       <c r="A413">
         <v>2</v>
       </c>
@@ -11245,12 +11323,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:7">
       <c r="A414">
         <v>2</v>
       </c>
       <c r="B414" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -11262,10 +11340,13 @@
         <v>364</v>
       </c>
       <c r="F414" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="415" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G414" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415">
         <v>2</v>
       </c>
@@ -11285,10 +11366,10 @@
         <v>9</v>
       </c>
       <c r="G415" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="416" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416">
         <v>2</v>
       </c>
@@ -11311,7 +11392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:7">
+    <row r="417" spans="1:7">
       <c r="A417">
         <v>2</v>
       </c>
@@ -11334,7 +11415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:7">
+    <row r="418" spans="1:7">
       <c r="A418">
         <v>2</v>
       </c>
@@ -11357,7 +11438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:6">
+    <row r="419" spans="1:7">
       <c r="A419">
         <v>2</v>
       </c>
@@ -11374,10 +11455,13 @@
         <v>364</v>
       </c>
       <c r="F419" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="420" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G419" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420">
         <v>2</v>
       </c>
@@ -11400,7 +11484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:7">
+    <row r="421" spans="1:7">
       <c r="A421">
         <v>2</v>
       </c>
@@ -11420,10 +11504,10 @@
         <v>9</v>
       </c>
       <c r="G421" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="422" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422">
         <v>2</v>
       </c>
@@ -11446,7 +11530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:7">
+    <row r="423" spans="1:7">
       <c r="A423">
         <v>2</v>
       </c>
@@ -11469,12 +11553,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:7">
       <c r="A424">
         <v>2</v>
       </c>
       <c r="B424" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -11486,10 +11570,13 @@
         <v>364</v>
       </c>
       <c r="F424" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="425" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G424" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425">
         <v>2</v>
       </c>
@@ -11509,10 +11596,10 @@
         <v>9</v>
       </c>
       <c r="G425" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="426" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426">
         <v>2</v>
       </c>
@@ -11535,7 +11622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:7">
+    <row r="427" spans="1:7">
       <c r="A427">
         <v>2</v>
       </c>
@@ -11558,7 +11645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:6">
+    <row r="428" spans="1:7">
       <c r="A428">
         <v>2</v>
       </c>
@@ -11575,10 +11662,13 @@
         <v>364</v>
       </c>
       <c r="F428" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="429" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G428" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429">
         <v>2</v>
       </c>
@@ -11598,10 +11688,10 @@
         <v>9</v>
       </c>
       <c r="G429" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="430" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430">
         <v>2</v>
       </c>
@@ -11624,7 +11714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:7">
+    <row r="431" spans="1:7">
       <c r="A431">
         <v>2</v>
       </c>
@@ -11647,12 +11737,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:7">
       <c r="A432">
         <v>2</v>
       </c>
       <c r="B432" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -11664,10 +11754,13 @@
         <v>364</v>
       </c>
       <c r="F432" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="433" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G432" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433">
         <v>2</v>
       </c>
@@ -11687,10 +11780,10 @@
         <v>9</v>
       </c>
       <c r="G433" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="434" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434">
         <v>2</v>
       </c>
@@ -11713,7 +11806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:7">
+    <row r="435" spans="1:7">
       <c r="A435">
         <v>2</v>
       </c>
@@ -11736,7 +11829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:6">
+    <row r="436" spans="1:7">
       <c r="A436">
         <v>2</v>
       </c>
@@ -11753,10 +11846,13 @@
         <v>364</v>
       </c>
       <c r="F436" t="s">
+        <v>9</v>
+      </c>
+      <c r="G436" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:7">
+    <row r="437" spans="1:7">
       <c r="A437">
         <v>2</v>
       </c>
@@ -11776,10 +11872,10 @@
         <v>9</v>
       </c>
       <c r="G437" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="438" hidden="1" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438">
         <v>2</v>
       </c>
@@ -11802,7 +11898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:7">
+    <row r="439" spans="1:7">
       <c r="A439">
         <v>2</v>
       </c>
@@ -11825,12 +11921,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:7">
       <c r="A440">
         <v>2</v>
       </c>
       <c r="B440" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -11842,10 +11938,13 @@
         <v>364</v>
       </c>
       <c r="F440" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="441" hidden="1" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G440" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441">
         <v>2</v>
       </c>
@@ -11868,17 +11967,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:7">
-      <c r="A442" s="1">
+    <row r="442" spans="1:7">
+      <c r="A442" s="2">
         <v>4</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C442" s="1">
-        <v>1</v>
-      </c>
-      <c r="D442" s="1">
+      <c r="B442" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C442" s="2">
+        <v>1</v>
+      </c>
+      <c r="D442" s="2">
         <v>2</v>
       </c>
       <c r="E442" t="s">
@@ -11891,17 +11990,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:7">
-      <c r="A443" s="1">
+    <row r="443" spans="1:7">
+      <c r="A443" s="2">
         <v>4</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C443" s="1">
-        <v>1</v>
-      </c>
-      <c r="D443" s="1">
+      <c r="B443" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C443" s="2">
+        <v>1</v>
+      </c>
+      <c r="D443" s="2">
         <v>2</v>
       </c>
       <c r="E443" t="s">
@@ -11914,17 +12013,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:7">
-      <c r="A444" s="1">
+    <row r="444" spans="1:7">
+      <c r="A444" s="2">
         <v>4</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C444" s="1">
-        <v>1</v>
-      </c>
-      <c r="D444" s="1">
+      <c r="B444" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1</v>
+      </c>
+      <c r="D444" s="2">
         <v>2</v>
       </c>
       <c r="E444" t="s">
@@ -11937,17 +12036,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:7">
-      <c r="A445" s="1">
+    <row r="445" spans="1:7">
+      <c r="A445" s="2">
         <v>4</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C445" s="1">
-        <v>1</v>
-      </c>
-      <c r="D445" s="1">
+      <c r="B445" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1</v>
+      </c>
+      <c r="D445" s="2">
         <v>2</v>
       </c>
       <c r="E445" t="s">
@@ -11960,17 +12059,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:7">
-      <c r="A446" s="1">
+    <row r="446" spans="1:7">
+      <c r="A446" s="2">
         <v>4</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C446" s="1">
-        <v>1</v>
-      </c>
-      <c r="D446" s="1">
+      <c r="B446" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C446" s="2">
+        <v>1</v>
+      </c>
+      <c r="D446" s="2">
         <v>2</v>
       </c>
       <c r="E446" t="s">
@@ -11983,17 +12082,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:7">
-      <c r="A447" s="1">
+    <row r="447" spans="1:7">
+      <c r="A447" s="2">
         <v>4</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C447" s="1">
-        <v>1</v>
-      </c>
-      <c r="D447" s="1">
+      <c r="B447" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C447" s="2">
+        <v>1</v>
+      </c>
+      <c r="D447" s="2">
         <v>2</v>
       </c>
       <c r="E447" t="s">
@@ -12006,17 +12105,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:7">
-      <c r="A448" s="1">
+    <row r="448" spans="1:7">
+      <c r="A448" s="2">
         <v>4</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C448" s="1">
-        <v>1</v>
-      </c>
-      <c r="D448" s="1">
+      <c r="B448" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C448" s="2">
+        <v>1</v>
+      </c>
+      <c r="D448" s="2">
         <v>2</v>
       </c>
       <c r="E448" t="s">
@@ -12029,17 +12128,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:7">
-      <c r="A449" s="1">
+    <row r="449" spans="1:7">
+      <c r="A449" s="2">
         <v>4</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C449" s="1">
-        <v>1</v>
-      </c>
-      <c r="D449" s="1">
+      <c r="B449" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1</v>
+      </c>
+      <c r="D449" s="2">
         <v>2</v>
       </c>
       <c r="E449" t="s">
@@ -12052,17 +12151,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:7">
-      <c r="A450" s="1">
+    <row r="450" spans="1:7">
+      <c r="A450" s="2">
         <v>4</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C450" s="1">
-        <v>1</v>
-      </c>
-      <c r="D450" s="1">
+      <c r="B450" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1</v>
+      </c>
+      <c r="D450" s="2">
         <v>2</v>
       </c>
       <c r="E450" t="s">
@@ -12075,17 +12174,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:7">
-      <c r="A451" s="1">
+    <row r="451" spans="1:7">
+      <c r="A451" s="2">
         <v>4</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C451" s="1">
-        <v>1</v>
-      </c>
-      <c r="D451" s="1">
+      <c r="B451" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1</v>
+      </c>
+      <c r="D451" s="2">
         <v>2</v>
       </c>
       <c r="E451" t="s">
@@ -12098,17 +12197,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:7">
-      <c r="A452" s="1">
+    <row r="452" spans="1:7">
+      <c r="A452" s="2">
         <v>4</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C452" s="1">
-        <v>1</v>
-      </c>
-      <c r="D452" s="1">
+      <c r="B452" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1</v>
+      </c>
+      <c r="D452" s="2">
         <v>2</v>
       </c>
       <c r="E452" t="s">
@@ -12121,17 +12220,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:7">
-      <c r="A453" s="1">
+    <row r="453" spans="1:7">
+      <c r="A453" s="2">
         <v>4</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C453" s="1">
-        <v>1</v>
-      </c>
-      <c r="D453" s="1">
+      <c r="B453" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C453" s="2">
+        <v>1</v>
+      </c>
+      <c r="D453" s="2">
         <v>2</v>
       </c>
       <c r="E453" t="s">
@@ -12144,17 +12243,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:7">
-      <c r="A454" s="1">
+    <row r="454" spans="1:7">
+      <c r="A454" s="2">
         <v>4</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C454" s="1">
-        <v>1</v>
-      </c>
-      <c r="D454" s="1">
+      <c r="B454" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C454" s="2">
+        <v>1</v>
+      </c>
+      <c r="D454" s="2">
         <v>2</v>
       </c>
       <c r="E454" t="s">
@@ -12167,17 +12266,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:7">
-      <c r="A455" s="1">
+    <row r="455" spans="1:7">
+      <c r="A455" s="2">
         <v>4</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C455" s="1">
-        <v>1</v>
-      </c>
-      <c r="D455" s="1">
+      <c r="B455" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1</v>
+      </c>
+      <c r="D455" s="2">
         <v>2</v>
       </c>
       <c r="E455" t="s">
@@ -12190,17 +12289,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:7">
-      <c r="A456" s="1">
+    <row r="456" spans="1:7">
+      <c r="A456" s="2">
         <v>4</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C456" s="1">
-        <v>1</v>
-      </c>
-      <c r="D456" s="1">
+      <c r="B456" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1</v>
+      </c>
+      <c r="D456" s="2">
         <v>2</v>
       </c>
       <c r="E456" t="s">
@@ -12213,17 +12312,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:7">
-      <c r="A457" s="1">
+    <row r="457" spans="1:7">
+      <c r="A457" s="2">
         <v>4</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C457" s="1">
-        <v>1</v>
-      </c>
-      <c r="D457" s="1">
+      <c r="B457" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C457" s="2">
+        <v>1</v>
+      </c>
+      <c r="D457" s="2">
         <v>2</v>
       </c>
       <c r="E457" t="s">
@@ -12236,17 +12335,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:7">
-      <c r="A458" s="1">
+    <row r="458" spans="1:7">
+      <c r="A458" s="2">
         <v>4</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C458" s="1">
-        <v>1</v>
-      </c>
-      <c r="D458" s="1">
+      <c r="B458" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1</v>
+      </c>
+      <c r="D458" s="2">
         <v>2</v>
       </c>
       <c r="E458" t="s">
@@ -12259,17 +12358,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:7">
-      <c r="A459" s="1">
+    <row r="459" spans="1:7">
+      <c r="A459" s="2">
         <v>4</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C459" s="1">
-        <v>1</v>
-      </c>
-      <c r="D459" s="1">
+      <c r="B459" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1</v>
+      </c>
+      <c r="D459" s="2">
         <v>2</v>
       </c>
       <c r="E459" t="s">
@@ -12282,17 +12381,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:7">
-      <c r="A460" s="1">
+    <row r="460" spans="1:7">
+      <c r="A460" s="2">
         <v>4</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C460" s="1">
-        <v>1</v>
-      </c>
-      <c r="D460" s="1">
+      <c r="B460" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C460" s="2">
+        <v>1</v>
+      </c>
+      <c r="D460" s="2">
         <v>2</v>
       </c>
       <c r="E460" t="s">
@@ -12305,17 +12404,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="1:7">
-      <c r="A461" s="1">
+    <row r="461" spans="1:7">
+      <c r="A461" s="2">
         <v>4</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C461" s="1">
-        <v>1</v>
-      </c>
-      <c r="D461" s="1">
+      <c r="B461" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C461" s="2">
+        <v>1</v>
+      </c>
+      <c r="D461" s="2">
         <v>2</v>
       </c>
       <c r="E461" t="s">
@@ -12328,17 +12427,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:7">
-      <c r="A462" s="1">
+    <row r="462" spans="1:7">
+      <c r="A462" s="2">
         <v>4</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C462" s="1">
-        <v>1</v>
-      </c>
-      <c r="D462" s="1">
+      <c r="B462" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C462" s="2">
+        <v>1</v>
+      </c>
+      <c r="D462" s="2">
         <v>2</v>
       </c>
       <c r="E462" t="s">
@@ -12351,17 +12450,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:7">
-      <c r="A463" s="1">
+    <row r="463" spans="1:7">
+      <c r="A463" s="2">
         <v>4</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C463" s="1">
-        <v>1</v>
-      </c>
-      <c r="D463" s="1">
+      <c r="B463" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C463" s="2">
+        <v>1</v>
+      </c>
+      <c r="D463" s="2">
         <v>2</v>
       </c>
       <c r="E463" t="s">
@@ -12374,17 +12473,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:7">
-      <c r="A464" s="1">
+    <row r="464" spans="1:7">
+      <c r="A464" s="2">
         <v>4</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C464" s="1">
-        <v>1</v>
-      </c>
-      <c r="D464" s="1">
+      <c r="B464" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C464" s="2">
+        <v>1</v>
+      </c>
+      <c r="D464" s="2">
         <v>2</v>
       </c>
       <c r="E464" t="s">
@@ -12397,17 +12496,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:7">
-      <c r="A465" s="1">
+    <row r="465" spans="1:7">
+      <c r="A465" s="2">
         <v>4</v>
       </c>
-      <c r="B465" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C465" s="1">
-        <v>1</v>
-      </c>
-      <c r="D465" s="1">
+      <c r="B465" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C465" s="2">
+        <v>1</v>
+      </c>
+      <c r="D465" s="2">
         <v>2</v>
       </c>
       <c r="E465" t="s">
@@ -12420,17 +12519,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:7">
-      <c r="A466" s="1">
+    <row r="466" spans="1:7">
+      <c r="A466" s="2">
         <v>4</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C466" s="1">
-        <v>1</v>
-      </c>
-      <c r="D466" s="1">
+      <c r="B466" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C466" s="2">
+        <v>1</v>
+      </c>
+      <c r="D466" s="2">
         <v>2</v>
       </c>
       <c r="E466" t="s">
@@ -12443,17 +12542,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:7">
-      <c r="A467" s="1">
+    <row r="467" spans="1:7">
+      <c r="A467" s="2">
         <v>4</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C467" s="1">
-        <v>1</v>
-      </c>
-      <c r="D467" s="1">
+      <c r="B467" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C467" s="2">
+        <v>1</v>
+      </c>
+      <c r="D467" s="2">
         <v>2</v>
       </c>
       <c r="E467" t="s">
@@ -12466,17 +12565,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:7">
-      <c r="A468" s="1">
+    <row r="468" spans="1:7">
+      <c r="A468" s="2">
         <v>4</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C468" s="1">
-        <v>1</v>
-      </c>
-      <c r="D468" s="1">
+      <c r="B468" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1</v>
+      </c>
+      <c r="D468" s="2">
         <v>2</v>
       </c>
       <c r="E468" t="s">
@@ -12489,17 +12588,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:7">
-      <c r="A469" s="1">
+    <row r="469" spans="1:7">
+      <c r="A469" s="2">
         <v>4</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C469" s="1">
-        <v>1</v>
-      </c>
-      <c r="D469" s="1">
+      <c r="B469" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1</v>
+      </c>
+      <c r="D469" s="2">
         <v>2</v>
       </c>
       <c r="E469" t="s">
@@ -12512,17 +12611,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:7">
-      <c r="A470" s="1">
+    <row r="470" spans="1:7">
+      <c r="A470" s="2">
         <v>4</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C470" s="1">
-        <v>1</v>
-      </c>
-      <c r="D470" s="1">
+      <c r="B470" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1</v>
+      </c>
+      <c r="D470" s="2">
         <v>2</v>
       </c>
       <c r="E470" t="s">
@@ -12535,17 +12634,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:7">
-      <c r="A471" s="1">
+    <row r="471" spans="1:7">
+      <c r="A471" s="2">
         <v>4</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C471" s="1">
-        <v>1</v>
-      </c>
-      <c r="D471" s="1">
+      <c r="B471" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1</v>
+      </c>
+      <c r="D471" s="2">
         <v>2</v>
       </c>
       <c r="E471" t="s">
@@ -12558,17 +12657,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:7">
-      <c r="A472" s="1">
+    <row r="472" spans="1:7">
+      <c r="A472" s="2">
         <v>4</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C472" s="1">
-        <v>1</v>
-      </c>
-      <c r="D472" s="1">
+      <c r="B472" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C472" s="2">
+        <v>1</v>
+      </c>
+      <c r="D472" s="2">
         <v>2</v>
       </c>
       <c r="E472" t="s">
@@ -12581,17 +12680,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:7">
-      <c r="A473" s="1">
+    <row r="473" spans="1:7">
+      <c r="A473" s="2">
         <v>4</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C473" s="1">
-        <v>1</v>
-      </c>
-      <c r="D473" s="1">
+      <c r="B473" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1</v>
+      </c>
+      <c r="D473" s="2">
         <v>2</v>
       </c>
       <c r="E473" t="s">
@@ -12604,17 +12703,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:7">
-      <c r="A474" s="1">
+    <row r="474" spans="1:7">
+      <c r="A474" s="2">
         <v>4</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C474" s="1">
-        <v>1</v>
-      </c>
-      <c r="D474" s="1">
+      <c r="B474" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1</v>
+      </c>
+      <c r="D474" s="2">
         <v>2</v>
       </c>
       <c r="E474" t="s">
@@ -12627,17 +12726,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:7">
-      <c r="A475" s="1">
+    <row r="475" spans="1:7">
+      <c r="A475" s="2">
         <v>4</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C475" s="1">
-        <v>1</v>
-      </c>
-      <c r="D475" s="1">
+      <c r="B475" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C475" s="2">
+        <v>1</v>
+      </c>
+      <c r="D475" s="2">
         <v>2</v>
       </c>
       <c r="E475" t="s">
@@ -12650,17 +12749,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:7">
-      <c r="A476" s="1">
+    <row r="476" spans="1:7">
+      <c r="A476" s="2">
         <v>4</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C476" s="1">
-        <v>1</v>
-      </c>
-      <c r="D476" s="1">
+      <c r="B476" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C476" s="2">
+        <v>1</v>
+      </c>
+      <c r="D476" s="2">
         <v>2</v>
       </c>
       <c r="E476" t="s">
@@ -12673,17 +12772,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:7">
-      <c r="A477" s="1">
+    <row r="477" spans="1:7">
+      <c r="A477" s="2">
         <v>4</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C477" s="1">
-        <v>1</v>
-      </c>
-      <c r="D477" s="1">
+      <c r="B477" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C477" s="2">
+        <v>1</v>
+      </c>
+      <c r="D477" s="2">
         <v>2</v>
       </c>
       <c r="E477" t="s">
@@ -12696,17 +12795,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:7">
-      <c r="A478" s="1">
+    <row r="478" spans="1:7">
+      <c r="A478" s="2">
         <v>4</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C478" s="1">
-        <v>1</v>
-      </c>
-      <c r="D478" s="1">
+      <c r="B478" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C478" s="2">
+        <v>1</v>
+      </c>
+      <c r="D478" s="2">
         <v>2</v>
       </c>
       <c r="E478" t="s">
@@ -12719,17 +12818,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:7">
-      <c r="A479" s="1">
+    <row r="479" spans="1:7">
+      <c r="A479" s="2">
         <v>4</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C479" s="1">
-        <v>1</v>
-      </c>
-      <c r="D479" s="1">
+      <c r="B479" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1</v>
+      </c>
+      <c r="D479" s="2">
         <v>2</v>
       </c>
       <c r="E479" t="s">
@@ -12742,17 +12841,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:7">
-      <c r="A480" s="1">
+    <row r="480" spans="1:7">
+      <c r="A480" s="2">
         <v>4</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C480" s="1">
-        <v>1</v>
-      </c>
-      <c r="D480" s="1">
+      <c r="B480" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1</v>
+      </c>
+      <c r="D480" s="2">
         <v>2</v>
       </c>
       <c r="E480" t="s">
@@ -12765,17 +12864,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:7">
-      <c r="A481" s="1">
+    <row r="481" spans="1:7">
+      <c r="A481" s="2">
         <v>4</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C481" s="1">
-        <v>1</v>
-      </c>
-      <c r="D481" s="1">
+      <c r="B481" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C481" s="2">
+        <v>1</v>
+      </c>
+      <c r="D481" s="2">
         <v>2</v>
       </c>
       <c r="E481" t="s">
@@ -12788,17 +12887,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:7">
-      <c r="A482" s="1">
+    <row r="482" spans="1:7">
+      <c r="A482" s="2">
         <v>4</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C482" s="1">
-        <v>1</v>
-      </c>
-      <c r="D482" s="1">
+      <c r="B482" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C482" s="2">
+        <v>1</v>
+      </c>
+      <c r="D482" s="2">
         <v>2</v>
       </c>
       <c r="E482" t="s">
@@ -12811,17 +12910,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:7">
-      <c r="A483" s="1">
+    <row r="483" spans="1:7">
+      <c r="A483" s="2">
         <v>4</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C483" s="1">
-        <v>1</v>
-      </c>
-      <c r="D483" s="1">
+      <c r="B483" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C483" s="2">
+        <v>1</v>
+      </c>
+      <c r="D483" s="2">
         <v>2</v>
       </c>
       <c r="E483" t="s">
@@ -12834,17 +12933,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:7">
-      <c r="A484" s="1">
+    <row r="484" spans="1:7">
+      <c r="A484" s="2">
         <v>4</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C484" s="1">
-        <v>1</v>
-      </c>
-      <c r="D484" s="1">
+      <c r="B484" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C484" s="2">
+        <v>1</v>
+      </c>
+      <c r="D484" s="2">
         <v>2</v>
       </c>
       <c r="E484" t="s">
@@ -12857,17 +12956,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:7">
-      <c r="A485" s="1">
+    <row r="485" spans="1:7">
+      <c r="A485" s="2">
         <v>4</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C485" s="1">
-        <v>1</v>
-      </c>
-      <c r="D485" s="1">
+      <c r="B485" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C485" s="2">
+        <v>1</v>
+      </c>
+      <c r="D485" s="2">
         <v>2</v>
       </c>
       <c r="E485" t="s">
@@ -12880,17 +12979,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:7">
-      <c r="A486" s="1">
+    <row r="486" spans="1:7">
+      <c r="A486" s="2">
         <v>4</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C486" s="1">
-        <v>1</v>
-      </c>
-      <c r="D486" s="1">
+      <c r="B486" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C486" s="2">
+        <v>1</v>
+      </c>
+      <c r="D486" s="2">
         <v>2</v>
       </c>
       <c r="E486" t="s">
@@ -12903,17 +13002,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:7">
-      <c r="A487" s="1">
+    <row r="487" spans="1:7">
+      <c r="A487" s="2">
         <v>4</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C487" s="1">
-        <v>1</v>
-      </c>
-      <c r="D487" s="1">
+      <c r="B487" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C487" s="2">
+        <v>1</v>
+      </c>
+      <c r="D487" s="2">
         <v>2</v>
       </c>
       <c r="E487" t="s">
@@ -12926,17 +13025,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:7">
-      <c r="A488" s="1">
+    <row r="488" spans="1:7">
+      <c r="A488" s="2">
         <v>4</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C488" s="1">
-        <v>1</v>
-      </c>
-      <c r="D488" s="1">
+      <c r="B488" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C488" s="2">
+        <v>1</v>
+      </c>
+      <c r="D488" s="2">
         <v>2</v>
       </c>
       <c r="E488" t="s">
@@ -12949,17 +13048,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:7">
-      <c r="A489" s="1">
+    <row r="489" spans="1:7">
+      <c r="A489" s="2">
         <v>4</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C489" s="1">
-        <v>1</v>
-      </c>
-      <c r="D489" s="1">
+      <c r="B489" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C489" s="2">
+        <v>1</v>
+      </c>
+      <c r="D489" s="2">
         <v>2</v>
       </c>
       <c r="E489" t="s">
@@ -12972,17 +13071,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:7">
-      <c r="A490" s="1">
+    <row r="490" spans="1:7">
+      <c r="A490" s="2">
         <v>4</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C490" s="1">
-        <v>1</v>
-      </c>
-      <c r="D490" s="1">
+      <c r="B490" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C490" s="2">
+        <v>1</v>
+      </c>
+      <c r="D490" s="2">
         <v>2</v>
       </c>
       <c r="E490" t="s">
@@ -12995,17 +13094,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:7">
-      <c r="A491" s="1">
+    <row r="491" spans="1:7">
+      <c r="A491" s="2">
         <v>4</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C491" s="1">
-        <v>1</v>
-      </c>
-      <c r="D491" s="1">
+      <c r="B491" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C491" s="2">
+        <v>1</v>
+      </c>
+      <c r="D491" s="2">
         <v>2</v>
       </c>
       <c r="E491" t="s">
@@ -13018,17 +13117,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:7">
-      <c r="A492" s="1">
+    <row r="492" spans="1:7">
+      <c r="A492" s="2">
         <v>4</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C492" s="1">
-        <v>1</v>
-      </c>
-      <c r="D492" s="1">
+      <c r="B492" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C492" s="2">
+        <v>1</v>
+      </c>
+      <c r="D492" s="2">
         <v>2</v>
       </c>
       <c r="E492" t="s">
@@ -13041,17 +13140,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:7">
-      <c r="A493" s="1">
+    <row r="493" spans="1:7">
+      <c r="A493" s="2">
         <v>4</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C493" s="1">
-        <v>1</v>
-      </c>
-      <c r="D493" s="1">
+      <c r="B493" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C493" s="2">
+        <v>1</v>
+      </c>
+      <c r="D493" s="2">
         <v>2</v>
       </c>
       <c r="E493" t="s">
@@ -13064,17 +13163,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:7">
-      <c r="A494" s="1">
+    <row r="494" spans="1:7">
+      <c r="A494" s="2">
         <v>4</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C494" s="1">
-        <v>1</v>
-      </c>
-      <c r="D494" s="1">
+      <c r="B494" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C494" s="2">
+        <v>1</v>
+      </c>
+      <c r="D494" s="2">
         <v>2</v>
       </c>
       <c r="E494" t="s">
@@ -13087,17 +13186,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:7">
-      <c r="A495" s="1">
+    <row r="495" spans="1:7">
+      <c r="A495" s="2">
         <v>4</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C495" s="1">
-        <v>1</v>
-      </c>
-      <c r="D495" s="1">
+      <c r="B495" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C495" s="2">
+        <v>1</v>
+      </c>
+      <c r="D495" s="2">
         <v>2</v>
       </c>
       <c r="E495" t="s">
@@ -13110,17 +13209,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:7">
-      <c r="A496" s="1">
+    <row r="496" spans="1:7">
+      <c r="A496" s="2">
         <v>4</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C496" s="1">
-        <v>2</v>
-      </c>
-      <c r="D496" s="1">
+      <c r="B496" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C496" s="2">
+        <v>2</v>
+      </c>
+      <c r="D496" s="2">
         <v>1</v>
       </c>
       <c r="E496" t="s">
@@ -13133,17 +13232,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:7">
-      <c r="A497" s="1">
+    <row r="497" spans="1:7">
+      <c r="A497" s="2">
         <v>4</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C497" s="1">
-        <v>2</v>
-      </c>
-      <c r="D497" s="1">
+      <c r="B497" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C497" s="2">
+        <v>2</v>
+      </c>
+      <c r="D497" s="2">
         <v>1</v>
       </c>
       <c r="E497" t="s">
@@ -13156,17 +13255,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:7">
-      <c r="A498" s="1">
+    <row r="498" spans="1:7">
+      <c r="A498" s="2">
         <v>4</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C498" s="1">
-        <v>2</v>
-      </c>
-      <c r="D498" s="1">
+      <c r="B498" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C498" s="2">
+        <v>2</v>
+      </c>
+      <c r="D498" s="2">
         <v>1</v>
       </c>
       <c r="E498" t="s">
@@ -13179,17 +13278,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:7">
-      <c r="A499" s="1">
+    <row r="499" spans="1:7">
+      <c r="A499" s="2">
         <v>4</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C499" s="1">
-        <v>2</v>
-      </c>
-      <c r="D499" s="1">
+      <c r="B499" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C499" s="2">
+        <v>2</v>
+      </c>
+      <c r="D499" s="2">
         <v>1</v>
       </c>
       <c r="E499" t="s">
@@ -13202,17 +13301,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:7">
-      <c r="A500" s="1">
+    <row r="500" spans="1:7">
+      <c r="A500" s="2">
         <v>4</v>
       </c>
-      <c r="B500" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C500" s="1">
-        <v>2</v>
-      </c>
-      <c r="D500" s="1">
+      <c r="B500" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C500" s="2">
+        <v>2</v>
+      </c>
+      <c r="D500" s="2">
         <v>1</v>
       </c>
       <c r="E500" t="s">
@@ -13225,17 +13324,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:7">
-      <c r="A501" s="1">
+    <row r="501" spans="1:7">
+      <c r="A501" s="2">
         <v>4</v>
       </c>
-      <c r="B501" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C501" s="1">
-        <v>2</v>
-      </c>
-      <c r="D501" s="1">
+      <c r="B501" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C501" s="2">
+        <v>2</v>
+      </c>
+      <c r="D501" s="2">
         <v>1</v>
       </c>
       <c r="E501" t="s">
@@ -13248,17 +13347,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:7">
-      <c r="A502" s="1">
+    <row r="502" spans="1:7">
+      <c r="A502" s="2">
         <v>4</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C502" s="1">
-        <v>2</v>
-      </c>
-      <c r="D502" s="1">
+      <c r="B502" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C502" s="2">
+        <v>2</v>
+      </c>
+      <c r="D502" s="2">
         <v>1</v>
       </c>
       <c r="E502" t="s">
@@ -13271,17 +13370,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:7">
-      <c r="A503" s="1">
+    <row r="503" spans="1:7">
+      <c r="A503" s="2">
         <v>4</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C503" s="1">
-        <v>2</v>
-      </c>
-      <c r="D503" s="1">
+      <c r="B503" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C503" s="2">
+        <v>2</v>
+      </c>
+      <c r="D503" s="2">
         <v>1</v>
       </c>
       <c r="E503" t="s">
@@ -13294,17 +13393,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:7">
-      <c r="A504" s="1">
+    <row r="504" spans="1:7">
+      <c r="A504" s="2">
         <v>4</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C504" s="1">
-        <v>2</v>
-      </c>
-      <c r="D504" s="1">
+      <c r="B504" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C504" s="2">
+        <v>2</v>
+      </c>
+      <c r="D504" s="2">
         <v>1</v>
       </c>
       <c r="E504" t="s">
@@ -13317,17 +13416,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:7">
-      <c r="A505" s="1">
+    <row r="505" spans="1:7">
+      <c r="A505" s="2">
         <v>4</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C505" s="1">
-        <v>2</v>
-      </c>
-      <c r="D505" s="1">
+      <c r="B505" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C505" s="2">
+        <v>2</v>
+      </c>
+      <c r="D505" s="2">
         <v>1</v>
       </c>
       <c r="E505" t="s">
@@ -13340,17 +13439,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:7">
-      <c r="A506" s="1">
+    <row r="506" spans="1:7">
+      <c r="A506" s="2">
         <v>4</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C506" s="1">
-        <v>2</v>
-      </c>
-      <c r="D506" s="1">
+      <c r="B506" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C506" s="2">
+        <v>2</v>
+      </c>
+      <c r="D506" s="2">
         <v>1</v>
       </c>
       <c r="E506" t="s">
@@ -13363,17 +13462,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:7">
-      <c r="A507" s="1">
+    <row r="507" spans="1:7">
+      <c r="A507" s="2">
         <v>4</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C507" s="1">
-        <v>2</v>
-      </c>
-      <c r="D507" s="1">
+      <c r="B507" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C507" s="2">
+        <v>2</v>
+      </c>
+      <c r="D507" s="2">
         <v>1</v>
       </c>
       <c r="E507" t="s">
@@ -13386,17 +13485,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:7">
-      <c r="A508" s="1">
+    <row r="508" spans="1:7">
+      <c r="A508" s="2">
         <v>4</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C508" s="1">
-        <v>2</v>
-      </c>
-      <c r="D508" s="1">
+      <c r="B508" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C508" s="2">
+        <v>2</v>
+      </c>
+      <c r="D508" s="2">
         <v>1</v>
       </c>
       <c r="E508" t="s">
@@ -13409,17 +13508,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:7">
-      <c r="A509" s="1">
+    <row r="509" spans="1:7">
+      <c r="A509" s="2">
         <v>4</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C509" s="1">
-        <v>2</v>
-      </c>
-      <c r="D509" s="1">
+      <c r="B509" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C509" s="2">
+        <v>2</v>
+      </c>
+      <c r="D509" s="2">
         <v>1</v>
       </c>
       <c r="E509" t="s">
@@ -13432,17 +13531,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:7">
-      <c r="A510" s="1">
+    <row r="510" spans="1:7">
+      <c r="A510" s="2">
         <v>4</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C510" s="1">
-        <v>2</v>
-      </c>
-      <c r="D510" s="1">
+      <c r="B510" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C510" s="2">
+        <v>2</v>
+      </c>
+      <c r="D510" s="2">
         <v>1</v>
       </c>
       <c r="E510" t="s">
@@ -13455,17 +13554,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:7">
-      <c r="A511" s="1">
+    <row r="511" spans="1:7">
+      <c r="A511" s="2">
         <v>4</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C511" s="1">
-        <v>2</v>
-      </c>
-      <c r="D511" s="1">
+      <c r="B511" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C511" s="2">
+        <v>2</v>
+      </c>
+      <c r="D511" s="2">
         <v>1</v>
       </c>
       <c r="E511" t="s">
@@ -13478,17 +13577,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:7">
-      <c r="A512" s="1">
+    <row r="512" spans="1:7">
+      <c r="A512" s="2">
         <v>4</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C512" s="1">
-        <v>2</v>
-      </c>
-      <c r="D512" s="1">
+      <c r="B512" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C512" s="2">
+        <v>2</v>
+      </c>
+      <c r="D512" s="2">
         <v>1</v>
       </c>
       <c r="E512" t="s">
@@ -13501,17 +13600,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:7">
-      <c r="A513" s="1">
+    <row r="513" spans="1:7">
+      <c r="A513" s="2">
         <v>4</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C513" s="1">
-        <v>2</v>
-      </c>
-      <c r="D513" s="1">
+      <c r="B513" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C513" s="2">
+        <v>2</v>
+      </c>
+      <c r="D513" s="2">
         <v>1</v>
       </c>
       <c r="E513" t="s">
@@ -13524,7 +13623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:6">
+    <row r="514" spans="1:6">
       <c r="A514">
         <v>4</v>
       </c>
@@ -13544,7 +13643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:6">
+    <row r="515" spans="1:6">
       <c r="A515">
         <v>4</v>
       </c>
@@ -13564,7 +13663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:6">
+    <row r="516" spans="1:6">
       <c r="A516">
         <v>4</v>
       </c>
@@ -13584,7 +13683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:6">
+    <row r="517" spans="1:6">
       <c r="A517">
         <v>4</v>
       </c>
@@ -13604,7 +13703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:6">
+    <row r="518" spans="1:6">
       <c r="A518">
         <v>4</v>
       </c>
@@ -13624,7 +13723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:6">
+    <row r="519" spans="1:6">
       <c r="A519">
         <v>4</v>
       </c>
@@ -13644,7 +13743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:6">
+    <row r="520" spans="1:6">
       <c r="A520">
         <v>4</v>
       </c>
@@ -13664,7 +13763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:6">
+    <row r="521" spans="1:6">
       <c r="A521">
         <v>4</v>
       </c>
@@ -13684,7 +13783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:6">
+    <row r="522" spans="1:6">
       <c r="A522">
         <v>4</v>
       </c>
@@ -13706,18 +13805,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G522">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="Виртуальное Практическое занятие на кафедре Зоологии беспозвоночных СПбГУ"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="Virtual"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="G385" r:id="rId1" display="https://vk.com/videos-54669810?z=video-54669810_456239044%2Fpl_-54669810_-2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
